--- a/ASHRAE901_ApartmentHighRise_STD2019_HoChiMinhTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_HoChiMinhTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2217.75</t>
+          <t>3412.87</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1599.10</t>
+          <t>3142.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>371.42</t>
+          <t>481.65</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1366.95</t>
+          <t>2682.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1118.87</t>
+          <t>2143.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1114.19</t>
+          <t>2134.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1588.43</t>
+          <t>2443.54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1583.25</t>
+          <t>2479.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2481.16</t>
+          <t>3817.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1782.18</t>
+          <t>3479.44</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2159.57</t>
+          <t>3426.96</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1491.24</t>
+          <t>2926.85</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1188.67</t>
+          <t>2245.13</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1169.24</t>
+          <t>2234.67</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1666.64</t>
+          <t>2627.28</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1661.08</t>
+          <t>2635.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2460.00</t>
+          <t>3796.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1761.87</t>
+          <t>3470.99</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2133.77</t>
+          <t>3391.79</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1474.38</t>
+          <t>2918.75</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1158.45</t>
+          <t>2232.61</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1151.72</t>
+          <t>2222.19</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1648.62</t>
+          <t>2606.69</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1642.47</t>
+          <t>2610.45</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2466.04</t>
+          <t>3805.39</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1757.49</t>
+          <t>3494.90</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2140.10</t>
+          <t>3404.21</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1470.44</t>
+          <t>2939.07</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1155.38</t>
+          <t>2250.81</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1148.69</t>
+          <t>2240.36</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1652.82</t>
+          <t>2613.91</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1646.48</t>
+          <t>2618.66</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2473.15</t>
+          <t>3815.85</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1753.59</t>
+          <t>3518.52</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2148.31</t>
+          <t>3423.67</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1467.24</t>
+          <t>2961.46</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1152.89</t>
+          <t>2268.79</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1146.25</t>
+          <t>2257.96</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1658.51</t>
+          <t>2623.30</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1652.12</t>
+          <t>2631.69</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2477.76</t>
+          <t>3830.38</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1750.68</t>
+          <t>3539.36</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2154.47</t>
+          <t>3444.31</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1411.41</t>
+          <t>2994.32</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1151.08</t>
+          <t>2302.84</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1144.50</t>
+          <t>2292.28</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1662.78</t>
+          <t>2636.53</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1656.39</t>
+          <t>2641.19</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2291.70</t>
+          <t>3850.55</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1734.04</t>
+          <t>3560.07</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2110.87</t>
+          <t>3458.32</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1065.13</t>
+          <t>3010.01</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1149.96</t>
+          <t>2316.39</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1143.47</t>
+          <t>2305.87</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1666.06</t>
+          <t>2649.85</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1659.76</t>
+          <t>2655.88</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2446.22</t>
+          <t>3867.97</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1470.52</t>
+          <t>3587.44</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2122.90</t>
+          <t>3475.38</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>828.66</t>
+          <t>3034.73</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1154.45</t>
+          <t>2338.46</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1148.34</t>
+          <t>2328.15</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1673.07</t>
+          <t>2664.88</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1667.07</t>
+          <t>2671.23</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2532.38</t>
+          <t>3954.65</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1785.50</t>
+          <t>3695.14</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2241.26</t>
+          <t>3541.08</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1250.79</t>
+          <t>3107.32</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1209.32</t>
+          <t>2444.80</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1203.32</t>
+          <t>2434.88</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1750.15</t>
+          <t>2724.43</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1745.02</t>
+          <t>2729.69</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3099.43</t>
+          <t>4753.12</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1498.58</t>
+          <t>4294.37</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3076.19</t>
+          <t>4276.48</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1784.03</t>
+          <t>3692.23</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1439.64</t>
+          <t>2932.74</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1437.83</t>
+          <t>2929.89</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3162.43</t>
+          <t>3470.52</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3166.51</t>
+          <t>3476.07</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1024.05</t>
+          <t>3453.37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>104.87</t>
+          <t>3203.95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>261.66</t>
+          <t>649.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>104.46</t>
+          <t>2778.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>113.67</t>
+          <t>2272.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>113.52</t>
+          <t>2262.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1304.23</t>
+          <t>2461.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1297.88</t>
+          <t>2506.63</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1430.42</t>
+          <t>3807.24</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>103.83</t>
+          <t>3494.98</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1455.48</t>
+          <t>3483.86</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>103.61</t>
+          <t>2983.11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>114.20</t>
+          <t>2353.33</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>114.07</t>
+          <t>2344.32</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1614.54</t>
+          <t>2623.20</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1560.66</t>
+          <t>2633.96</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1225.76</t>
+          <t>3777.50</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>103.23</t>
+          <t>3482.22</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>803.65</t>
+          <t>3398.32</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>103.11</t>
+          <t>2963.72</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>113.93</t>
+          <t>2349.08</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>113.82</t>
+          <t>2337.82</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1454.79</t>
+          <t>2586.80</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1363.61</t>
+          <t>2590.99</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>981.70</t>
+          <t>3792.23</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>102.58</t>
+          <t>3501.92</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>336.19</t>
+          <t>3399.85</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>102.51</t>
+          <t>2983.44</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>113.07</t>
+          <t>2316.45</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>112.97</t>
+          <t>2308.34</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1233.73</t>
+          <t>2587.58</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1139.33</t>
+          <t>2594.73</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>744.24</t>
+          <t>3807.85</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>102.00</t>
+          <t>3520.48</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>103.11</t>
+          <t>3415.87</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>101.95</t>
+          <t>3000.61</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>112.10</t>
+          <t>2330.58</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>112.01</t>
+          <t>2322.00</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1000.97</t>
+          <t>2593.59</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>911.33</t>
+          <t>2598.51</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>516.71</t>
+          <t>3815.76</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>101.49</t>
+          <t>3581.50</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>102.47</t>
+          <t>3424.53</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>101.47</t>
+          <t>3014.43</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>111.16</t>
+          <t>2343.17</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>111.07</t>
+          <t>2334.55</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>774.54</t>
+          <t>2601.13</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>688.20</t>
+          <t>2605.98</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>295.12</t>
+          <t>3832.74</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>101.02</t>
+          <t>3603.07</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>101.89</t>
+          <t>3434.38</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>101.01</t>
+          <t>3023.08</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>110.18</t>
+          <t>2356.78</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>110.10</t>
+          <t>2346.99</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>556.37</t>
+          <t>2608.09</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>472.08</t>
+          <t>2613.78</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>114.98</t>
+          <t>3853.31</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>3628.51</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>101.18</t>
+          <t>3445.42</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>100.44</t>
+          <t>3046.80</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>108.92</t>
+          <t>2380.33</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>108.86</t>
+          <t>2370.71</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>341.56</t>
+          <t>2620.62</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>267.75</t>
+          <t>2625.85</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>119.28</t>
+          <t>3955.14</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>99.27</t>
+          <t>3745.52</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>141.12</t>
+          <t>3526.76</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>3112.88</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>106.92</t>
+          <t>2491.97</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>106.89</t>
+          <t>2482.81</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>355.18</t>
+          <t>2695.22</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>313.78</t>
+          <t>2700.76</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>1145.20</t>
+          <t>4858.43</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>340.14</t>
+          <t>4380.45</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>1674.56</t>
+          <t>4224.58</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>96.50</t>
+          <t>3745.79</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>124.07</t>
+          <t>2935.60</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>120.75</t>
+          <t>2934.08</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1489.01</t>
+          <t>3377.47</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1501.79</t>
+          <t>3383.29</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2449.77</t>
+          <t>3471.45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2131.59</t>
+          <t>3235.69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>279.98</t>
+          <t>695.97</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1787.26</t>
+          <t>2818.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1367.80</t>
+          <t>2294.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1364.25</t>
+          <t>2285.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1600.80</t>
+          <t>2426.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1610.80</t>
+          <t>2450.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2792.85</t>
+          <t>3871.66</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2424.04</t>
+          <t>3599.91</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2424.52</t>
+          <t>3439.76</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1985.76</t>
+          <t>3025.27</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1448.85</t>
+          <t>2360.70</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1443.86</t>
+          <t>2353.55</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1699.15</t>
+          <t>2599.30</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1706.91</t>
+          <t>2606.31</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2753.99</t>
+          <t>3848.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2403.61</t>
+          <t>3554.66</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2349.06</t>
+          <t>3411.28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1970.80</t>
+          <t>3039.37</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1435.71</t>
+          <t>2358.50</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1432.30</t>
+          <t>2346.63</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1670.54</t>
+          <t>2570.37</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1677.70</t>
+          <t>2577.76</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2731.30</t>
+          <t>3858.34</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2402.06</t>
+          <t>3577.09</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2342.85</t>
+          <t>3422.38</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1973.30</t>
+          <t>3022.37</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1437.34</t>
+          <t>2364.07</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1431.53</t>
+          <t>2352.93</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1668.62</t>
+          <t>2575.32</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1663.70</t>
+          <t>2582.28</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2715.33</t>
+          <t>3872.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2400.79</t>
+          <t>3614.55</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2324.37</t>
+          <t>3433.51</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1976.06</t>
+          <t>3045.20</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1439.56</t>
+          <t>2373.79</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1433.93</t>
+          <t>2363.66</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1662.04</t>
+          <t>2583.78</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1655.23</t>
+          <t>2589.70</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2707.44</t>
+          <t>3889.32</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2393.25</t>
+          <t>3643.64</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2314.95</t>
+          <t>3450.20</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1978.62</t>
+          <t>3056.15</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1439.97</t>
+          <t>2385.55</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1434.48</t>
+          <t>2382.00</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1652.26</t>
+          <t>2592.63</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1647.60</t>
+          <t>2600.32</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2703.96</t>
+          <t>3913.09</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2397.08</t>
+          <t>3665.34</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2310.73</t>
+          <t>3464.21</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1977.38</t>
+          <t>3074.41</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1442.27</t>
+          <t>2413.66</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1438.28</t>
+          <t>2402.80</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1648.60</t>
+          <t>2602.12</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1646.62</t>
+          <t>2609.24</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2713.34</t>
+          <t>3940.69</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2411.25</t>
+          <t>3700.03</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2319.24</t>
+          <t>3486.40</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1992.69</t>
+          <t>3105.88</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1456.16</t>
+          <t>2440.02</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1452.45</t>
+          <t>2429.45</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1661.97</t>
+          <t>2618.68</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1655.57</t>
+          <t>2624.71</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2824.60</t>
+          <t>4063.63</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2535.97</t>
+          <t>3830.72</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2429.24</t>
+          <t>3574.82</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2079.20</t>
+          <t>3176.14</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1556.17</t>
+          <t>2534.81</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1553.01</t>
+          <t>2523.03</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1771.71</t>
+          <t>2699.92</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1766.28</t>
+          <t>2706.89</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3533.12</t>
+          <t>4872.85</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3173.63</t>
+          <t>4519.49</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3095.68</t>
+          <t>4324.86</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2653.82</t>
+          <t>3813.14</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2040.43</t>
+          <t>3012.24</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2042.25</t>
+          <t>3008.08</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2442.06</t>
+          <t>3429.31</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2450.28</t>
+          <t>3425.70</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2539.11</t>
+          <t>3419.11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2469.20</t>
+          <t>3230.80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>393.33</t>
+          <t>736.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2104.15</t>
+          <t>2821.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1680.99</t>
+          <t>2291.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1679.09</t>
+          <t>2281.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1755.11</t>
+          <t>2398.89</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1781.76</t>
+          <t>2443.20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2831.27</t>
+          <t>3760.84</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2730.37</t>
+          <t>3528.85</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2556.72</t>
+          <t>3377.76</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2281.17</t>
+          <t>3023.50</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1753.95</t>
+          <t>2378.28</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1749.20</t>
+          <t>2368.08</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1837.47</t>
+          <t>2555.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1840.87</t>
+          <t>2545.94</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2785.78</t>
+          <t>3728.76</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2687.71</t>
+          <t>3509.56</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2433.04</t>
+          <t>3325.60</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2250.96</t>
+          <t>2994.92</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1727.68</t>
+          <t>2356.43</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1723.06</t>
+          <t>2345.14</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1806.98</t>
+          <t>2521.91</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1804.51</t>
+          <t>2528.55</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2784.02</t>
+          <t>3740.67</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2684.00</t>
+          <t>3527.32</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2407.67</t>
+          <t>3349.87</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2250.80</t>
+          <t>3014.04</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1728.45</t>
+          <t>2369.94</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1723.91</t>
+          <t>2360.27</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1806.20</t>
+          <t>2527.85</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1802.22</t>
+          <t>2533.83</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2699.94</t>
+          <t>3756.59</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2601.09</t>
+          <t>3542.66</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2334.20</t>
+          <t>3388.47</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2183.16</t>
+          <t>3044.62</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1694.48</t>
+          <t>2382.99</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1687.32</t>
+          <t>2373.34</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1760.11</t>
+          <t>2541.19</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1752.98</t>
+          <t>2543.89</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2701.57</t>
+          <t>3772.05</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2600.06</t>
+          <t>3560.41</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2336.48</t>
+          <t>3422.76</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2184.83</t>
+          <t>3070.43</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1695.96</t>
+          <t>2389.67</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1688.75</t>
+          <t>2380.09</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1751.13</t>
+          <t>2563.53</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1746.33</t>
+          <t>2568.84</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2704.23</t>
+          <t>3786.46</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2599.92</t>
+          <t>3581.57</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2340.75</t>
+          <t>3445.37</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2187.58</t>
+          <t>3086.90</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1697.07</t>
+          <t>2401.86</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1691.82</t>
+          <t>2392.28</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1752.32</t>
+          <t>2574.63</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1748.17</t>
+          <t>2580.02</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2696.67</t>
+          <t>3806.88</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2599.58</t>
+          <t>3613.70</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2351.51</t>
+          <t>3460.73</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2197.42</t>
+          <t>3097.15</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1690.39</t>
+          <t>2420.69</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1685.54</t>
+          <t>2411.12</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1761.52</t>
+          <t>2586.58</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1757.77</t>
+          <t>2595.75</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2806.50</t>
+          <t>3909.53</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2690.08</t>
+          <t>3721.36</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2426.40</t>
+          <t>3548.15</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2253.93</t>
+          <t>3157.64</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1767.71</t>
+          <t>2514.43</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1762.82</t>
+          <t>2504.81</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1839.28</t>
+          <t>2661.35</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1835.31</t>
+          <t>2667.08</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3387.94</t>
+          <t>4554.58</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3181.28</t>
+          <t>4325.84</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2915.01</t>
+          <t>4181.27</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2669.89</t>
+          <t>3865.05</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2098.91</t>
+          <t>2962.18</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2097.90</t>
+          <t>2969.09</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2297.81</t>
+          <t>3306.78</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2300.55</t>
+          <t>3325.38</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2760.02</t>
+          <t>3332.71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2705.00</t>
+          <t>3203.59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>367.83</t>
+          <t>1078.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2287.61</t>
+          <t>2793.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1837.45</t>
+          <t>2286.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1833.00</t>
+          <t>2277.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1872.46</t>
+          <t>2388.65</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1895.63</t>
+          <t>2372.01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3056.31</t>
+          <t>3689.84</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2968.06</t>
+          <t>3521.93</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2657.91</t>
+          <t>3349.60</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2449.25</t>
+          <t>3023.74</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1886.41</t>
+          <t>2357.89</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1878.43</t>
+          <t>2348.73</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1930.22</t>
+          <t>2526.72</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1928.83</t>
+          <t>2514.18</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3007.63</t>
+          <t>3661.49</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2923.82</t>
+          <t>3502.06</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2553.86</t>
+          <t>3320.28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2411.60</t>
+          <t>3029.64</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1851.12</t>
+          <t>2338.43</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1843.12</t>
+          <t>2328.42</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1892.33</t>
+          <t>2478.75</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1886.27</t>
+          <t>2482.49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3006.28</t>
+          <t>3678.25</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2923.16</t>
+          <t>3522.59</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2546.92</t>
+          <t>3318.90</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2409.95</t>
+          <t>3041.97</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1849.10</t>
+          <t>2351.28</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1841.04</t>
+          <t>2342.42</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1889.79</t>
+          <t>2493.85</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1882.46</t>
+          <t>2498.31</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3010.05</t>
+          <t>3711.42</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2927.23</t>
+          <t>3544.51</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2551.18</t>
+          <t>3363.56</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2413.12</t>
+          <t>3052.16</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1850.68</t>
+          <t>2359.28</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1842.61</t>
+          <t>2348.65</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1891.15</t>
+          <t>2520.56</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1883.43</t>
+          <t>2525.17</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2968.96</t>
+          <t>3722.17</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2881.93</t>
+          <t>3564.41</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2519.98</t>
+          <t>3381.47</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2390.73</t>
+          <t>3062.93</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1820.18</t>
+          <t>2373.93</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1812.09</t>
+          <t>2363.30</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1865.34</t>
+          <t>2518.54</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1857.57</t>
+          <t>2523.53</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2973.27</t>
+          <t>3743.75</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2886.42</t>
+          <t>3585.94</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2526.84</t>
+          <t>3397.29</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2398.67</t>
+          <t>3079.50</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1823.54</t>
+          <t>2388.42</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1815.43</t>
+          <t>2377.78</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1868.50</t>
+          <t>2537.53</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1860.68</t>
+          <t>2542.48</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2983.85</t>
+          <t>3773.35</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2898.41</t>
+          <t>3614.41</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2538.70</t>
+          <t>3425.27</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2412.72</t>
+          <t>3102.11</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1833.39</t>
+          <t>2410.97</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1825.31</t>
+          <t>2400.35</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1877.94</t>
+          <t>2557.67</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1870.15</t>
+          <t>2561.93</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3078.86</t>
+          <t>3879.80</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2999.77</t>
+          <t>3732.77</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2617.40</t>
+          <t>3522.32</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2476.99</t>
+          <t>3159.98</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1912.75</t>
+          <t>2509.53</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1904.67</t>
+          <t>2499.19</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1958.18</t>
+          <t>2639.51</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1950.47</t>
+          <t>2643.96</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3644.46</t>
+          <t>4475.81</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3534.78</t>
+          <t>4289.43</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3136.64</t>
+          <t>4108.10</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2923.50</t>
+          <t>3728.62</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2299.64</t>
+          <t>2915.72</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2296.53</t>
+          <t>2913.70</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2492.03</t>
+          <t>3227.16</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2492.08</t>
+          <t>3233.21</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2388.79</t>
+          <t>3296.74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2373.88</t>
+          <t>3158.77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>546.93</t>
+          <t>1185.44</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2033.89</t>
+          <t>2738.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1644.79</t>
+          <t>2235.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1641.38</t>
+          <t>2228.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1681.37</t>
+          <t>2319.10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1720.03</t>
+          <t>2352.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2600.08</t>
+          <t>3638.73</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2608.76</t>
+          <t>3476.42</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2414.06</t>
+          <t>3279.30</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2154.76</t>
+          <t>2936.33</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1682.77</t>
+          <t>2311.36</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1676.94</t>
+          <t>2302.12</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1727.33</t>
+          <t>2465.53</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1734.97</t>
+          <t>2471.04</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2439.97</t>
+          <t>3624.09</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2558.92</t>
+          <t>3461.10</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2168.30</t>
+          <t>3202.42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2048.18</t>
+          <t>2907.36</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1628.13</t>
+          <t>2292.13</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1621.31</t>
+          <t>2282.91</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1620.36</t>
+          <t>2442.08</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1618.54</t>
+          <t>2445.71</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2324.47</t>
+          <t>3643.14</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2549.67</t>
+          <t>3479.88</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2009.60</t>
+          <t>3213.21</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2017.66</t>
+          <t>2920.43</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1622.48</t>
+          <t>2306.34</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1615.73</t>
+          <t>2297.11</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1612.02</t>
+          <t>2453.33</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1611.97</t>
+          <t>2457.70</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2321.43</t>
+          <t>3661.99</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2545.89</t>
+          <t>3501.57</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1993.01</t>
+          <t>3231.67</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2018.46</t>
+          <t>2937.13</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1624.31</t>
+          <t>2322.42</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1616.58</t>
+          <t>2313.19</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1620.05</t>
+          <t>2467.22</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1618.84</t>
+          <t>2471.48</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2320.28</t>
+          <t>3680.06</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2543.54</t>
+          <t>3535.32</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1997.68</t>
+          <t>3289.48</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2020.01</t>
+          <t>2988.67</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1631.48</t>
+          <t>2336.94</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1623.83</t>
+          <t>2327.72</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1627.69</t>
+          <t>2479.76</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1626.30</t>
+          <t>2483.94</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2321.52</t>
+          <t>3702.50</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2541.74</t>
+          <t>3559.31</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1989.43</t>
+          <t>3305.93</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2022.27</t>
+          <t>3003.39</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1638.64</t>
+          <t>2350.69</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1631.07</t>
+          <t>2341.50</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1635.08</t>
+          <t>2492.03</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1633.76</t>
+          <t>2496.15</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2328.46</t>
+          <t>3729.78</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2544.01</t>
+          <t>3588.05</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1998.63</t>
+          <t>3329.00</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2030.21</t>
+          <t>3027.59</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1651.21</t>
+          <t>2370.54</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1643.65</t>
+          <t>2361.37</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1673.93</t>
+          <t>2509.92</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1667.61</t>
+          <t>2513.98</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2404.93</t>
+          <t>3834.41</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2611.95</t>
+          <t>3693.08</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2048.73</t>
+          <t>3425.63</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2105.86</t>
+          <t>3097.25</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1723.22</t>
+          <t>2462.41</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1716.68</t>
+          <t>2453.21</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1726.78</t>
+          <t>2585.90</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1724.88</t>
+          <t>2590.13</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2850.40</t>
+          <t>4364.38</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3080.03</t>
+          <t>4207.79</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2360.01</t>
+          <t>3989.50</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2431.02</t>
+          <t>3683.50</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2072.21</t>
+          <t>2860.18</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2055.52</t>
+          <t>2857.82</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1946.93</t>
+          <t>3192.24</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1947.45</t>
+          <t>3196.87</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2252.87</t>
+          <t>3268.30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2388.62</t>
+          <t>3130.35</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>602.97</t>
+          <t>1420.70</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2013.74</t>
+          <t>2761.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1599.88</t>
+          <t>2232.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1597.53</t>
+          <t>2224.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1526.04</t>
+          <t>2316.83</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1622.24</t>
+          <t>2351.17</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2430.87</t>
+          <t>3587.15</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2580.67</t>
+          <t>3425.69</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2373.13</t>
+          <t>3265.10</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2070.35</t>
+          <t>2949.89</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1657.32</t>
+          <t>2303.25</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1653.82</t>
+          <t>2294.11</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1543.21</t>
+          <t>2459.83</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1559.92</t>
+          <t>2465.80</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2370.16</t>
+          <t>3547.80</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2517.60</t>
+          <t>3391.84</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1933.48</t>
+          <t>3197.40</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2016.16</t>
+          <t>2921.17</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1623.25</t>
+          <t>2294.65</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1619.87</t>
+          <t>2285.48</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1494.86</t>
+          <t>2445.22</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1491.13</t>
+          <t>2449.03</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2360.45</t>
+          <t>3567.72</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2507.05</t>
+          <t>3413.97</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1893.99</t>
+          <t>3213.05</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2009.89</t>
+          <t>2938.41</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1618.52</t>
+          <t>2306.84</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1615.14</t>
+          <t>2297.67</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1487.76</t>
+          <t>2455.33</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1481.83</t>
+          <t>2459.87</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2358.12</t>
+          <t>3589.42</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2504.02</t>
+          <t>3437.14</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1893.10</t>
+          <t>3234.51</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2010.06</t>
+          <t>2957.37</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1617.69</t>
+          <t>2321.34</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1614.26</t>
+          <t>2312.18</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1487.74</t>
+          <t>2468.42</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1482.62</t>
+          <t>2472.85</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2357.11</t>
+          <t>3608.92</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2502.41</t>
+          <t>3457.81</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1896.12</t>
+          <t>3253.88</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2011.14</t>
+          <t>2974.39</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1617.55</t>
+          <t>2331.62</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1614.08</t>
+          <t>2322.46</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1502.54</t>
+          <t>2480.55</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1497.34</t>
+          <t>2484.91</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2357.15</t>
+          <t>3627.19</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2501.90</t>
+          <t>3477.09</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1899.99</t>
+          <t>3272.00</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2013.01</t>
+          <t>2990.44</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1617.92</t>
+          <t>2344.34</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1614.42</t>
+          <t>2335.18</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1505.38</t>
+          <t>2492.47</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1500.17</t>
+          <t>2496.76</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2363.04</t>
+          <t>3650.59</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2507.27</t>
+          <t>3501.47</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1913.14</t>
+          <t>3295.05</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2020.84</t>
+          <t>3014.95</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1621.23</t>
+          <t>2369.03</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1617.68</t>
+          <t>2359.87</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1514.24</t>
+          <t>2510.14</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1509.05</t>
+          <t>2514.38</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2436.60</t>
+          <t>3749.61</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2582.40</t>
+          <t>3600.18</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1983.00</t>
+          <t>3380.74</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2096.77</t>
+          <t>3076.96</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1677.72</t>
+          <t>2459.39</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1672.15</t>
+          <t>2450.59</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1584.32</t>
+          <t>2584.79</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1579.13</t>
+          <t>2589.20</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2884.08</t>
+          <t>4196.19</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3019.87</t>
+          <t>4031.18</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2323.56</t>
+          <t>3897.67</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2403.69</t>
+          <t>3584.02</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2036.08</t>
+          <t>2843.31</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2021.34</t>
+          <t>2841.77</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1915.14</t>
+          <t>3138.77</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1902.49</t>
+          <t>3143.15</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2221.02</t>
+          <t>3085.55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2151.66</t>
+          <t>2952.57</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>728.15</t>
+          <t>1547.93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1867.09</t>
+          <t>2572.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1532.07</t>
+          <t>2036.54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1529.04</t>
+          <t>2028.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1609.76</t>
+          <t>2123.42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1722.37</t>
+          <t>2168.60</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2411.53</t>
+          <t>3384.60</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2320.78</t>
+          <t>3293.99</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2505.80</t>
+          <t>3113.68</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1969.71</t>
+          <t>2772.96</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1572.40</t>
+          <t>2114.07</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1566.79</t>
+          <t>2107.73</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1652.64</t>
+          <t>2222.48</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1676.87</t>
+          <t>2232.87</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2353.55</t>
+          <t>3354.28</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2230.44</t>
+          <t>3272.83</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2091.87</t>
+          <t>2988.22</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1873.36</t>
+          <t>2758.27</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1504.00</t>
+          <t>2114.21</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1502.95</t>
+          <t>2103.26</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1607.25</t>
+          <t>2170.49</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1608.03</t>
+          <t>2171.04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2345.13</t>
+          <t>3372.65</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2226.15</t>
+          <t>3292.63</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2051.44</t>
+          <t>2993.40</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1868.47</t>
+          <t>2790.62</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1498.13</t>
+          <t>2134.97</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1497.15</t>
+          <t>2125.08</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1600.86</t>
+          <t>2183.77</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1598.29</t>
+          <t>2177.85</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2343.96</t>
+          <t>3391.62</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2227.86</t>
+          <t>3314.28</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2049.88</t>
+          <t>3012.61</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1874.65</t>
+          <t>2823.95</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1498.73</t>
+          <t>2151.13</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1497.74</t>
+          <t>2142.12</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1600.66</t>
+          <t>2218.54</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1597.65</t>
+          <t>2212.26</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2344.15</t>
+          <t>3417.25</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2230.33</t>
+          <t>3333.73</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2052.49</t>
+          <t>3034.26</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1880.85</t>
+          <t>2852.17</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1500.11</t>
+          <t>2169.02</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1499.21</t>
+          <t>2158.89</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1601.57</t>
+          <t>2249.79</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1598.52</t>
+          <t>2243.70</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2345.36</t>
+          <t>3441.39</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2233.35</t>
+          <t>3364.22</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2056.05</t>
+          <t>3058.27</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1887.15</t>
+          <t>2871.20</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1502.21</t>
+          <t>2183.32</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1501.34</t>
+          <t>2173.35</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1603.40</t>
+          <t>2278.48</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1600.37</t>
+          <t>2272.60</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2351.85</t>
+          <t>3470.16</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2240.65</t>
+          <t>3391.52</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2064.67</t>
+          <t>3106.35</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1897.99</t>
+          <t>2899.99</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1541.18</t>
+          <t>2202.66</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1535.46</t>
+          <t>2193.82</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1610.39</t>
+          <t>2311.08</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1607.39</t>
+          <t>2305.39</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2420.38</t>
+          <t>3587.72</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2295.27</t>
+          <t>3496.32</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2134.08</t>
+          <t>3214.76</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1964.29</t>
+          <t>2973.11</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1612.26</t>
+          <t>2292.52</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1606.51</t>
+          <t>2289.75</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1671.43</t>
+          <t>2399.94</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1668.60</t>
+          <t>2400.83</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2793.98</t>
+          <t>3988.58</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2700.17</t>
+          <t>3819.81</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2444.45</t>
+          <t>3772.71</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2232.14</t>
+          <t>3463.50</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1817.20</t>
+          <t>2706.44</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1807.40</t>
+          <t>2689.85</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1976.18</t>
+          <t>2912.39</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1966.51</t>
+          <t>2916.40</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2466.98</t>
+          <t>3319.17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2374.52</t>
+          <t>3201.26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>790.12</t>
+          <t>1325.56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2046.77</t>
+          <t>2796.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1660.03</t>
+          <t>2260.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1656.72</t>
+          <t>2251.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1747.68</t>
+          <t>2364.41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1778.33</t>
+          <t>2398.18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2679.65</t>
+          <t>3659.10</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2546.79</t>
+          <t>3500.42</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2468.03</t>
+          <t>3285.62</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2141.57</t>
+          <t>2994.88</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1678.76</t>
+          <t>2330.01</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1671.51</t>
+          <t>2319.27</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1780.71</t>
+          <t>2509.23</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1784.25</t>
+          <t>2514.56</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2547.21</t>
+          <t>3634.87</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2457.64</t>
+          <t>3489.62</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2253.39</t>
+          <t>3233.52</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2097.70</t>
+          <t>2977.38</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1640.82</t>
+          <t>2299.41</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1634.66</t>
+          <t>2288.71</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1703.66</t>
+          <t>2476.11</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1699.90</t>
+          <t>2480.74</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2552.41</t>
+          <t>3653.04</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2464.98</t>
+          <t>3517.77</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2241.48</t>
+          <t>3257.15</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2103.61</t>
+          <t>2995.32</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1644.88</t>
+          <t>2310.44</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1638.72</t>
+          <t>2299.76</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1706.16</t>
+          <t>2483.50</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1700.63</t>
+          <t>2488.40</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2562.98</t>
+          <t>3674.78</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2384.91</t>
+          <t>3546.36</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2250.63</t>
+          <t>3282.58</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2030.06</t>
+          <t>3013.32</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1653.06</t>
+          <t>2325.15</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1646.91</t>
+          <t>2314.47</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1713.30</t>
+          <t>2495.40</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1707.48</t>
+          <t>2500.16</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2573.13</t>
+          <t>3694.51</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2387.35</t>
+          <t>3571.80</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2261.41</t>
+          <t>3305.33</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2039.02</t>
+          <t>3029.71</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1661.04</t>
+          <t>2338.73</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1654.90</t>
+          <t>2328.06</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1720.49</t>
+          <t>2507.13</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1714.63</t>
+          <t>2511.72</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2583.31</t>
+          <t>3713.23</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2397.18</t>
+          <t>3595.42</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2272.94</t>
+          <t>3326.47</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2047.79</t>
+          <t>3045.42</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1669.24</t>
+          <t>2352.03</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1663.12</t>
+          <t>2341.37</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1727.99</t>
+          <t>2519.66</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1722.12</t>
+          <t>2524.19</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2499.16</t>
+          <t>3738.83</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2412.69</t>
+          <t>3624.34</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2289.73</t>
+          <t>3352.31</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2061.86</t>
+          <t>3070.68</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1683.97</t>
+          <t>2372.87</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1677.87</t>
+          <t>2362.25</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1742.06</t>
+          <t>2539.42</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1736.20</t>
+          <t>2543.88</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2681.45</t>
+          <t>3855.56</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2488.16</t>
+          <t>3730.94</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2357.16</t>
+          <t>3440.77</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2107.56</t>
+          <t>3139.39</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1756.91</t>
+          <t>2477.46</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1750.73</t>
+          <t>2466.67</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1815.53</t>
+          <t>2625.67</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1809.62</t>
+          <t>2630.36</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2871.62</t>
+          <t>4355.29</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2661.50</t>
+          <t>4251.03</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2644.93</t>
+          <t>3954.65</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2319.55</t>
+          <t>3692.58</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1866.50</t>
+          <t>2895.04</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1865.89</t>
+          <t>2891.98</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2091.91</t>
+          <t>3196.68</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2095.22</t>
+          <t>3200.70</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3101.33</t>
+          <t>3482.41</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2712.95</t>
+          <t>3190.93</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>899.04</t>
+          <t>1345.64</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2342.21</t>
+          <t>2819.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1878.20</t>
+          <t>2279.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1873.49</t>
+          <t>2270.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2110.12</t>
+          <t>2476.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2112.75</t>
+          <t>2518.83</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3434.72</t>
+          <t>3814.19</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3059.10</t>
+          <t>3499.06</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3021.65</t>
+          <t>3471.88</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2537.28</t>
+          <t>3009.51</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1987.25</t>
+          <t>2352.69</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1977.41</t>
+          <t>2343.53</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2201.52</t>
+          <t>2622.30</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2201.90</t>
+          <t>2632.44</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3375.65</t>
+          <t>3768.22</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3057.95</t>
+          <t>3531.01</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2948.55</t>
+          <t>3413.80</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2519.10</t>
+          <t>2986.47</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1979.60</t>
+          <t>2327.92</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1972.61</t>
+          <t>2317.27</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2163.97</t>
+          <t>2580.87</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2160.35</t>
+          <t>2585.39</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3375.97</t>
+          <t>3773.22</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3071.22</t>
+          <t>3557.02</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2944.21</t>
+          <t>3428.73</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2546.39</t>
+          <t>3000.94</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1983.88</t>
+          <t>2337.35</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1981.47</t>
+          <t>2328.15</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2172.76</t>
+          <t>2581.16</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2165.38</t>
+          <t>2586.15</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3381.56</t>
+          <t>3789.46</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3080.41</t>
+          <t>3577.39</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2960.70</t>
+          <t>3450.44</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2564.09</t>
+          <t>3025.82</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1994.14</t>
+          <t>2353.95</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1988.62</t>
+          <t>2344.74</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2186.99</t>
+          <t>2587.10</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2180.81</t>
+          <t>2591.89</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3383.20</t>
+          <t>3798.70</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3089.44</t>
+          <t>3595.86</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2974.40</t>
+          <t>3470.23</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2579.16</t>
+          <t>3052.23</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1999.46</t>
+          <t>2368.91</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1994.16</t>
+          <t>2359.69</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2197.29</t>
+          <t>2599.04</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2190.30</t>
+          <t>2595.98</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3389.30</t>
+          <t>3815.30</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3102.53</t>
+          <t>3613.23</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2988.56</t>
+          <t>3488.63</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2591.76</t>
+          <t>3076.54</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1997.20</t>
+          <t>2383.18</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1999.19</t>
+          <t>2373.95</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2206.08</t>
+          <t>2615.26</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2199.77</t>
+          <t>2622.05</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3402.98</t>
+          <t>3837.84</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3112.00</t>
+          <t>3635.94</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3009.41</t>
+          <t>3511.79</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2610.97</t>
+          <t>3104.98</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2011.81</t>
+          <t>2403.46</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2006.91</t>
+          <t>2394.25</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2220.30</t>
+          <t>2639.00</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2214.87</t>
+          <t>2644.33</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3510.79</t>
+          <t>3933.44</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3192.91</t>
+          <t>3739.28</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3095.89</t>
+          <t>3596.99</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2675.79</t>
+          <t>3169.69</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2086.02</t>
+          <t>2499.89</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2089.71</t>
+          <t>2490.44</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2313.97</t>
+          <t>2706.75</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2307.48</t>
+          <t>2712.38</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4324.86</t>
+          <t>4711.55</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3828.72</t>
+          <t>4400.85</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3827.26</t>
+          <t>4263.13</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3281.18</t>
+          <t>3801.70</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2540.67</t>
+          <t>2967.69</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2549.61</t>
+          <t>2965.24</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3020.84</t>
+          <t>3376.69</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3029.23</t>
+          <t>3383.57</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3266.76</t>
+          <t>3544.19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2640.33</t>
+          <t>3223.34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>785.12</t>
+          <t>911.97</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2215.67</t>
+          <t>2818.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1752.61</t>
+          <t>2293.39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1749.59</t>
+          <t>2283.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2237.70</t>
+          <t>2485.27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2215.12</t>
+          <t>2521.67</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3656.17</t>
+          <t>3922.77</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2965.18</t>
+          <t>3556.20</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3119.89</t>
+          <t>3503.11</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2387.89</t>
+          <t>3024.42</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1809.52</t>
+          <t>2384.08</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1804.12</t>
+          <t>2373.19</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2328.32</t>
+          <t>2673.54</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2312.77</t>
+          <t>2679.76</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3619.20</t>
+          <t>3894.84</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2959.52</t>
+          <t>3546.55</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3094.53</t>
+          <t>3474.97</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2500.39</t>
+          <t>3004.41</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1778.71</t>
+          <t>2364.36</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1772.19</t>
+          <t>2353.76</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2314.32</t>
+          <t>2649.98</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2301.51</t>
+          <t>2650.68</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3624.76</t>
+          <t>3918.63</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2977.70</t>
+          <t>3574.54</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>3104.42</t>
+          <t>3490.65</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2514.63</t>
+          <t>3017.03</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1957.12</t>
+          <t>2386.38</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1949.06</t>
+          <t>2377.34</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2388.60</t>
+          <t>2657.06</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2379.53</t>
+          <t>2664.58</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3635.01</t>
+          <t>3942.09</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2996.39</t>
+          <t>3596.86</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3121.60</t>
+          <t>3512.25</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2530.10</t>
+          <t>3051.14</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1966.41</t>
+          <t>2396.89</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1958.33</t>
+          <t>2387.68</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2393.40</t>
+          <t>2673.18</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2384.25</t>
+          <t>2680.29</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3643.68</t>
+          <t>3958.26</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3011.29</t>
+          <t>3613.63</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3137.36</t>
+          <t>3535.74</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2542.74</t>
+          <t>3067.79</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1977.10</t>
+          <t>2409.65</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1968.96</t>
+          <t>2400.42</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2398.04</t>
+          <t>2683.68</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2389.21</t>
+          <t>2690.71</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3652.02</t>
+          <t>3981.17</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3022.80</t>
+          <t>3637.62</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3144.13</t>
+          <t>3557.55</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2552.72</t>
+          <t>3077.01</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1987.81</t>
+          <t>2423.26</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1979.67</t>
+          <t>2414.04</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2402.62</t>
+          <t>2698.97</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2393.48</t>
+          <t>2701.76</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3664.72</t>
+          <t>4007.76</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3041.22</t>
+          <t>3661.31</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3166.42</t>
+          <t>3579.43</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2569.75</t>
+          <t>3100.18</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2005.23</t>
+          <t>2439.78</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1997.19</t>
+          <t>2430.61</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2412.63</t>
+          <t>2718.33</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2403.46</t>
+          <t>2723.55</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3776.51</t>
+          <t>4112.52</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3144.93</t>
+          <t>3766.58</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3262.04</t>
+          <t>3665.58</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2638.47</t>
+          <t>3160.97</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2100.39</t>
+          <t>2541.56</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2092.87</t>
+          <t>2532.51</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2472.64</t>
+          <t>2792.96</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2464.08</t>
+          <t>2801.94</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4626.68</t>
+          <t>4926.36</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3710.07</t>
+          <t>4474.54</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3950.19</t>
+          <t>4452.12</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2935.61</t>
+          <t>3813.23</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2290.96</t>
+          <t>2993.33</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2289.21</t>
+          <t>2989.93</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>3139.78</t>
+          <t>3566.58</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>3139.38</t>
+          <t>3574.30</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2874.29</t>
+          <t>3516.58</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2388.67</t>
+          <t>3119.10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>365.68</t>
+          <t>563.53</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2069.26</t>
+          <t>2745.17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1760.80</t>
+          <t>2186.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1755.41</t>
+          <t>2178.46</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2101.62</t>
+          <t>2467.13</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2100.65</t>
+          <t>2491.40</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2892.35</t>
+          <t>3899.66</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2664.20</t>
+          <t>3438.58</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2643.00</t>
+          <t>3444.95</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1793.74</t>
+          <t>2940.97</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1821.84</t>
+          <t>2359.33</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1813.45</t>
+          <t>2349.41</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2167.63</t>
+          <t>2640.02</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2162.48</t>
+          <t>2646.00</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2866.29</t>
+          <t>3873.37</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2649.93</t>
+          <t>3436.63</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2483.61</t>
+          <t>3415.44</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2254.11</t>
+          <t>2929.89</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1753.32</t>
+          <t>2340.80</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1746.47</t>
+          <t>2331.61</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2124.41</t>
+          <t>2610.96</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2128.22</t>
+          <t>2615.20</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2867.41</t>
+          <t>3886.33</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2660.32</t>
+          <t>3481.56</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2488.25</t>
+          <t>3433.23</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2257.13</t>
+          <t>2946.22</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1759.12</t>
+          <t>2353.07</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1752.02</t>
+          <t>2343.88</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2095.55</t>
+          <t>2621.55</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2088.96</t>
+          <t>2626.44</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2875.41</t>
+          <t>3906.29</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2671.33</t>
+          <t>3508.10</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2487.77</t>
+          <t>3453.64</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2266.24</t>
+          <t>2964.57</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1766.39</t>
+          <t>2366.66</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1759.25</t>
+          <t>2357.47</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2100.18</t>
+          <t>2633.04</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2091.62</t>
+          <t>2638.17</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2875.63</t>
+          <t>3927.12</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2680.87</t>
+          <t>3527.29</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2502.41</t>
+          <t>3471.13</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2274.69</t>
+          <t>2980.61</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1772.84</t>
+          <t>2378.83</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1765.72</t>
+          <t>2369.63</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1926.87</t>
+          <t>2645.70</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1913.87</t>
+          <t>2649.31</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2870.51</t>
+          <t>3946.59</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2690.18</t>
+          <t>3546.33</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2517.91</t>
+          <t>3488.44</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2283.30</t>
+          <t>2996.12</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1779.58</t>
+          <t>2390.51</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1772.52</t>
+          <t>2381.32</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1926.35</t>
+          <t>2658.36</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1918.44</t>
+          <t>2659.55</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2878.24</t>
+          <t>3967.92</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2706.90</t>
+          <t>3564.36</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2532.35</t>
+          <t>3512.83</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2299.38</t>
+          <t>3025.89</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1793.85</t>
+          <t>2408.62</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1786.97</t>
+          <t>2399.48</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1936.92</t>
+          <t>2676.10</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1929.06</t>
+          <t>2681.45</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2968.90</t>
+          <t>4065.11</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2808.75</t>
+          <t>3655.62</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2620.50</t>
+          <t>3617.76</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2371.74</t>
+          <t>3099.66</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1885.45</t>
+          <t>2496.58</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1879.28</t>
+          <t>2487.49</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2009.77</t>
+          <t>2769.82</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2002.13</t>
+          <t>2776.10</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3748.90</t>
+          <t>4825.07</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2840.73</t>
+          <t>4265.29</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3207.24</t>
+          <t>4306.47</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2263.05</t>
+          <t>3626.41</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1807.75</t>
+          <t>2900.43</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1803.20</t>
+          <t>2898.32</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2555.25</t>
+          <t>3492.74</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2557.85</t>
+          <t>3501.05</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1024.05</t>
+          <t>3085.55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>104.87</t>
+          <t>2952.57</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>261.66</t>
+          <t>481.65</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>104.46</t>
+          <t>2572.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>113.67</t>
+          <t>2036.54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>113.52</t>
+          <t>2028.13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1304.23</t>
+          <t>2123.42</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1297.88</t>
+          <t>2168.60</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1430.42</t>
+          <t>3384.60</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>103.83</t>
+          <t>3293.99</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1455.48</t>
+          <t>3113.68</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>103.61</t>
+          <t>2772.96</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>114.20</t>
+          <t>2114.07</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>114.07</t>
+          <t>2107.73</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1543.21</t>
+          <t>2222.48</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1559.92</t>
+          <t>2232.87</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1225.76</t>
+          <t>3354.28</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>103.23</t>
+          <t>3272.83</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>803.65</t>
+          <t>2988.22</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>103.11</t>
+          <t>2758.27</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>113.93</t>
+          <t>2114.21</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>113.82</t>
+          <t>2103.26</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1454.79</t>
+          <t>2170.49</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1363.61</t>
+          <t>2171.04</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>981.70</t>
+          <t>3372.65</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>102.58</t>
+          <t>3292.63</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>336.19</t>
+          <t>2993.40</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>102.51</t>
+          <t>2790.62</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>113.07</t>
+          <t>2134.97</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>112.97</t>
+          <t>2125.08</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1233.73</t>
+          <t>2183.77</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1139.33</t>
+          <t>2177.85</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>744.24</t>
+          <t>3391.62</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>102.00</t>
+          <t>3314.28</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>103.11</t>
+          <t>3012.61</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>101.95</t>
+          <t>2823.95</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>112.10</t>
+          <t>2151.13</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>112.01</t>
+          <t>2142.12</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1000.97</t>
+          <t>2218.54</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>911.33</t>
+          <t>2212.26</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>516.71</t>
+          <t>3417.25</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>101.49</t>
+          <t>3333.73</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>102.47</t>
+          <t>3034.26</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>101.47</t>
+          <t>2852.17</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>111.16</t>
+          <t>2169.02</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>111.07</t>
+          <t>2158.89</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>774.54</t>
+          <t>2249.79</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>688.20</t>
+          <t>2243.70</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>295.12</t>
+          <t>3441.39</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>101.02</t>
+          <t>3364.22</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>101.89</t>
+          <t>3058.27</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>101.01</t>
+          <t>2871.20</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>110.18</t>
+          <t>2183.32</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>110.10</t>
+          <t>2173.35</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>556.37</t>
+          <t>2278.48</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>472.08</t>
+          <t>2272.60</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>114.98</t>
+          <t>3470.16</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>3391.52</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>101.18</t>
+          <t>3106.35</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>100.44</t>
+          <t>2899.99</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>108.92</t>
+          <t>2202.66</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>108.86</t>
+          <t>2193.82</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>341.56</t>
+          <t>2311.08</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>267.75</t>
+          <t>2305.39</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>119.28</t>
+          <t>3587.72</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>99.27</t>
+          <t>3496.32</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>141.12</t>
+          <t>3214.76</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>2973.11</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>106.92</t>
+          <t>2292.52</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>106.89</t>
+          <t>2289.75</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>355.18</t>
+          <t>2399.94</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>313.78</t>
+          <t>2400.83</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>1145.20</t>
+          <t>3988.58</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>340.14</t>
+          <t>3819.81</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1674.56</t>
+          <t>3772.71</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>96.50</t>
+          <t>3463.50</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>124.07</t>
+          <t>2706.44</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>120.75</t>
+          <t>2689.85</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1489.01</t>
+          <t>2912.39</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1501.79</t>
+          <t>2916.40</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3266.76</t>
+          <t>3544.19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2712.95</t>
+          <t>3235.69</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>899.04</t>
+          <t>1547.93</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2342.21</t>
+          <t>2821.97</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1878.20</t>
+          <t>2294.35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1873.49</t>
+          <t>2285.24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2237.70</t>
+          <t>2485.27</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2215.12</t>
+          <t>2521.67</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3656.17</t>
+          <t>3922.77</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3059.10</t>
+          <t>3599.91</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3119.89</t>
+          <t>3503.11</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2537.28</t>
+          <t>3025.27</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1987.25</t>
+          <t>2384.08</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1977.41</t>
+          <t>2373.19</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2328.32</t>
+          <t>2673.54</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2312.77</t>
+          <t>2679.76</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3619.20</t>
+          <t>3894.84</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3057.95</t>
+          <t>3554.66</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3094.53</t>
+          <t>3474.97</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2519.10</t>
+          <t>3039.37</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1979.60</t>
+          <t>2364.36</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1972.61</t>
+          <t>2353.76</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2314.32</t>
+          <t>2649.98</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2301.51</t>
+          <t>2650.68</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3624.76</t>
+          <t>3918.63</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3071.22</t>
+          <t>3577.09</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3104.42</t>
+          <t>3490.65</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2546.39</t>
+          <t>3041.97</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1983.88</t>
+          <t>2386.38</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1981.47</t>
+          <t>2377.34</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2388.60</t>
+          <t>2657.06</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2379.53</t>
+          <t>2664.58</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3635.01</t>
+          <t>3942.09</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3080.41</t>
+          <t>3614.55</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3121.60</t>
+          <t>3512.25</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2564.09</t>
+          <t>3052.16</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1994.14</t>
+          <t>2396.89</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1988.62</t>
+          <t>2387.68</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2393.40</t>
+          <t>2673.18</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2384.25</t>
+          <t>2680.29</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3643.68</t>
+          <t>3958.26</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3089.44</t>
+          <t>3643.64</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3137.36</t>
+          <t>3535.74</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2579.16</t>
+          <t>3070.43</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1999.46</t>
+          <t>2409.65</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1994.16</t>
+          <t>2400.42</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2398.04</t>
+          <t>2683.68</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2389.21</t>
+          <t>2690.71</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3652.02</t>
+          <t>3981.17</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3102.53</t>
+          <t>3665.34</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3144.13</t>
+          <t>3557.55</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2591.76</t>
+          <t>3086.90</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1997.20</t>
+          <t>2423.26</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1999.19</t>
+          <t>2414.04</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2402.62</t>
+          <t>2698.97</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2393.48</t>
+          <t>2701.76</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3664.72</t>
+          <t>4007.76</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3112.00</t>
+          <t>3700.03</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3166.42</t>
+          <t>3579.43</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2610.97</t>
+          <t>3105.88</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2011.81</t>
+          <t>2440.02</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2006.91</t>
+          <t>2430.61</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2412.63</t>
+          <t>2718.33</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2403.46</t>
+          <t>2723.55</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3776.51</t>
+          <t>4112.52</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3192.91</t>
+          <t>3830.72</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3262.04</t>
+          <t>3665.58</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2675.79</t>
+          <t>3176.14</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2100.39</t>
+          <t>2541.56</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2092.87</t>
+          <t>2532.51</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2472.64</t>
+          <t>2792.96</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2464.08</t>
+          <t>2801.94</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4626.68</t>
+          <t>4926.36</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3828.72</t>
+          <t>4519.49</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3950.19</t>
+          <t>4452.12</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3281.18</t>
+          <t>3865.05</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2540.67</t>
+          <t>3012.24</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2549.61</t>
+          <t>3008.08</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>3162.43</t>
+          <t>3566.58</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>3166.51</t>
+          <t>3574.30</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_HoChiMinhTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_HoChiMinhTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3412.87</t>
+          <t>3512.68</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3142.00</t>
+          <t>2676.14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>481.65</t>
+          <t>928.71</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2682.59</t>
+          <t>2239.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2143.32</t>
+          <t>1758.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2134.57</t>
+          <t>1752.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2443.54</t>
+          <t>2496.47</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2479.96</t>
+          <t>2478.62</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3817.65</t>
+          <t>3870.92</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3479.44</t>
+          <t>2982.78</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3426.96</t>
+          <t>3511.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2926.85</t>
+          <t>2441.37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2245.13</t>
+          <t>1842.74</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2234.67</t>
+          <t>1836.21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2627.28</t>
+          <t>2661.29</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2635.01</t>
+          <t>2667.64</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3796.02</t>
+          <t>3815.35</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3470.99</t>
+          <t>2933.90</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3391.79</t>
+          <t>3471.97</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2918.75</t>
+          <t>2407.53</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2232.61</t>
+          <t>1815.80</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2222.19</t>
+          <t>1808.91</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2606.69</t>
+          <t>2649.58</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2610.45</t>
+          <t>2653.26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3805.39</t>
+          <t>3813.79</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3494.90</t>
+          <t>2936.85</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>3404.21</t>
+          <t>3494.19</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2939.07</t>
+          <t>2424.98</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2250.81</t>
+          <t>1915.45</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2240.36</t>
+          <t>1902.62</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2613.91</t>
+          <t>2672.55</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2618.66</t>
+          <t>2677.14</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3815.85</t>
+          <t>3820.89</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3518.52</t>
+          <t>2942.01</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>3423.67</t>
+          <t>3457.37</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2961.46</t>
+          <t>2415.01</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2268.79</t>
+          <t>1916.98</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2257.96</t>
+          <t>1903.90</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2623.30</t>
+          <t>2669.03</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2631.69</t>
+          <t>2688.50</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3830.38</t>
+          <t>3825.78</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3539.36</t>
+          <t>2947.16</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>3444.31</t>
+          <t>3448.45</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2994.32</t>
+          <t>2419.93</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2302.84</t>
+          <t>1922.49</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2292.28</t>
+          <t>1909.30</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2636.53</t>
+          <t>2668.49</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2641.19</t>
+          <t>2673.55</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3850.55</t>
+          <t>3838.67</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3560.07</t>
+          <t>2932.47</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>3458.32</t>
+          <t>3450.72</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3010.01</t>
+          <t>2411.98</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2316.39</t>
+          <t>1928.77</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2305.87</t>
+          <t>1915.47</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2649.85</t>
+          <t>2671.25</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2655.88</t>
+          <t>2677.15</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3867.97</t>
+          <t>3854.63</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3587.44</t>
+          <t>2943.51</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>3475.38</t>
+          <t>3462.90</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>3034.73</t>
+          <t>2423.58</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2338.46</t>
+          <t>1941.32</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2328.15</t>
+          <t>1927.94</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2664.88</t>
+          <t>2681.25</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2671.23</t>
+          <t>2690.16</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3954.65</t>
+          <t>3940.85</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3695.14</t>
+          <t>3029.01</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3541.08</t>
+          <t>3530.12</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>3107.32</t>
+          <t>2478.37</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2444.80</t>
+          <t>2018.88</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2434.88</t>
+          <t>2004.83</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2724.43</t>
+          <t>2739.53</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2729.69</t>
+          <t>2746.32</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4753.12</t>
+          <t>4658.21</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>4294.37</t>
+          <t>3689.45</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>4276.48</t>
+          <t>4177.80</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3692.23</t>
+          <t>2993.32</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2932.74</t>
+          <t>2333.84</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2929.89</t>
+          <t>2332.08</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3470.52</t>
+          <t>3381.77</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3476.07</t>
+          <t>3402.00</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3453.37</t>
+          <t>3534.29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3203.95</t>
+          <t>2531.99</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>649.37</t>
+          <t>828.01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2778.21</t>
+          <t>2475.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2272.03</t>
+          <t>2023.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2262.18</t>
+          <t>2012.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2461.42</t>
+          <t>2526.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2506.63</t>
+          <t>2529.21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3807.24</t>
+          <t>3896.76</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3494.98</t>
+          <t>2771.53</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3483.86</t>
+          <t>3484.92</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2983.11</t>
+          <t>2377.76</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2353.33</t>
+          <t>2082.02</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2344.32</t>
+          <t>2068.28</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2623.20</t>
+          <t>2686.27</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2633.96</t>
+          <t>2696.04</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3777.50</t>
+          <t>3871.01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3482.22</t>
+          <t>2637.17</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3398.32</t>
+          <t>3432.81</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2963.72</t>
+          <t>2211.25</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2349.08</t>
+          <t>2017.50</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2337.82</t>
+          <t>2009.04</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2586.80</t>
+          <t>2651.46</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2590.99</t>
+          <t>2657.92</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3792.23</t>
+          <t>3884.75</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3501.92</t>
+          <t>2625.69</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>3399.85</t>
+          <t>3449.28</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2983.44</t>
+          <t>2198.31</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2316.45</t>
+          <t>2020.44</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2308.34</t>
+          <t>2011.80</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2587.58</t>
+          <t>2648.60</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2594.73</t>
+          <t>2654.23</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3807.85</t>
+          <t>3902.81</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3520.48</t>
+          <t>2621.50</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3415.87</t>
+          <t>3461.10</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>3000.61</t>
+          <t>2594.58</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2330.58</t>
+          <t>2028.45</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2322.00</t>
+          <t>2016.91</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2593.59</t>
+          <t>2659.72</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2598.51</t>
+          <t>2664.92</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3815.76</t>
+          <t>3921.28</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3581.50</t>
+          <t>2619.07</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>3424.53</t>
+          <t>3476.22</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>3014.43</t>
+          <t>2234.64</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2343.17</t>
+          <t>2033.87</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2334.55</t>
+          <t>2025.21</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2601.13</t>
+          <t>2654.54</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2605.98</t>
+          <t>2658.20</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3832.74</t>
+          <t>3939.27</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3603.07</t>
+          <t>2626.53</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>3434.38</t>
+          <t>3490.29</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3023.08</t>
+          <t>2173.15</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2356.78</t>
+          <t>2042.45</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2346.99</t>
+          <t>2033.95</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2608.09</t>
+          <t>2666.83</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2613.78</t>
+          <t>2667.07</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3853.31</t>
+          <t>3955.93</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3628.51</t>
+          <t>2652.76</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>3445.42</t>
+          <t>3500.71</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>3046.80</t>
+          <t>2205.09</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2380.33</t>
+          <t>2057.66</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2370.71</t>
+          <t>2049.15</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2620.62</t>
+          <t>2654.64</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2625.85</t>
+          <t>2660.95</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3955.14</t>
+          <t>4055.78</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3745.52</t>
+          <t>2705.61</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>3526.76</t>
+          <t>3566.43</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>3112.88</t>
+          <t>2264.44</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2491.97</t>
+          <t>2143.19</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2482.81</t>
+          <t>2134.21</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2695.22</t>
+          <t>2725.65</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2700.76</t>
+          <t>2730.36</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4858.43</t>
+          <t>4774.88</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4380.45</t>
+          <t>3342.88</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>4224.58</t>
+          <t>4165.45</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3745.79</t>
+          <t>2699.02</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2935.60</t>
+          <t>2149.85</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2934.08</t>
+          <t>2149.62</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>3377.47</t>
+          <t>3405.01</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>3383.29</t>
+          <t>3408.91</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3471.45</t>
+          <t>3344.88</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3235.69</t>
+          <t>2859.11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>695.97</t>
+          <t>643.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2818.53</t>
+          <t>2440.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2294.35</t>
+          <t>1940.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2285.24</t>
+          <t>1927.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2426.64</t>
+          <t>2389.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2450.78</t>
+          <t>2383.67</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3871.66</t>
+          <t>3758.27</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3599.91</t>
+          <t>3251.49</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3439.76</t>
+          <t>3277.73</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3025.27</t>
+          <t>2725.52</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2360.70</t>
+          <t>2054.03</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2353.55</t>
+          <t>2040.33</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2599.30</t>
+          <t>2526.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2606.31</t>
+          <t>2531.17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3848.06</t>
+          <t>3728.28</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3554.66</t>
+          <t>3276.86</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3411.28</t>
+          <t>3380.70</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3039.37</t>
+          <t>2779.56</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2358.50</t>
+          <t>2056.81</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2346.63</t>
+          <t>2047.16</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2570.37</t>
+          <t>2559.35</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2577.76</t>
+          <t>2564.86</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3858.34</t>
+          <t>3838.14</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3577.09</t>
+          <t>3344.45</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>3422.38</t>
+          <t>3383.95</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>3022.37</t>
+          <t>3042.86</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2364.07</t>
+          <t>2353.99</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2352.93</t>
+          <t>2342.23</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2575.32</t>
+          <t>2565.25</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2582.28</t>
+          <t>2570.18</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3872.07</t>
+          <t>3850.35</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3614.55</t>
+          <t>3641.05</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3433.51</t>
+          <t>3395.77</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>3045.20</t>
+          <t>3056.86</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2373.79</t>
+          <t>2365.63</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2363.66</t>
+          <t>2354.88</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2583.78</t>
+          <t>2572.45</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2589.70</t>
+          <t>2576.93</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3889.32</t>
+          <t>3862.54</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3643.64</t>
+          <t>3656.17</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>3450.20</t>
+          <t>3409.83</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>3056.15</t>
+          <t>3069.44</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2385.55</t>
+          <t>2379.15</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2382.00</t>
+          <t>2368.18</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2592.63</t>
+          <t>2581.13</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2600.32</t>
+          <t>2585.64</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3913.09</t>
+          <t>3873.95</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3665.34</t>
+          <t>3671.20</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>3464.21</t>
+          <t>3421.36</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3074.41</t>
+          <t>3082.51</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2413.66</t>
+          <t>2389.82</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2402.80</t>
+          <t>2378.70</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2602.12</t>
+          <t>2589.49</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2609.24</t>
+          <t>2593.55</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3940.69</t>
+          <t>3893.42</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3700.03</t>
+          <t>3694.43</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>3486.40</t>
+          <t>3440.69</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>3105.88</t>
+          <t>3102.61</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2440.02</t>
+          <t>2409.10</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2429.45</t>
+          <t>2398.07</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2618.68</t>
+          <t>2606.32</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2624.71</t>
+          <t>2610.43</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>4063.63</t>
+          <t>4016.90</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3830.72</t>
+          <t>3816.49</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>3574.82</t>
+          <t>3541.71</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>3176.14</t>
+          <t>3176.99</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2534.81</t>
+          <t>2515.47</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2523.03</t>
+          <t>2504.56</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2699.92</t>
+          <t>2694.59</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2706.89</t>
+          <t>2699.42</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4872.85</t>
+          <t>4761.47</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4519.49</t>
+          <t>4453.37</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>4324.86</t>
+          <t>4103.73</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3813.14</t>
+          <t>3659.85</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>3012.24</t>
+          <t>2914.36</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>3008.08</t>
+          <t>2910.94</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>3429.31</t>
+          <t>3327.10</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>3425.70</t>
+          <t>3330.38</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3419.11</t>
+          <t>3147.64</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3230.80</t>
+          <t>2987.75</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>736.44</t>
+          <t>475.08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2821.97</t>
+          <t>2479.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2291.82</t>
+          <t>1975.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2281.21</t>
+          <t>1967.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2398.89</t>
+          <t>2136.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2443.20</t>
+          <t>2143.74</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3760.84</t>
+          <t>3519.35</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3528.85</t>
+          <t>3327.42</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3377.76</t>
+          <t>3110.89</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3023.50</t>
+          <t>2730.72</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2378.28</t>
+          <t>2434.73</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2368.08</t>
+          <t>2425.35</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2555.02</t>
+          <t>2279.64</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2545.94</t>
+          <t>2290.60</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3728.76</t>
+          <t>3479.47</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3509.56</t>
+          <t>3301.66</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3325.60</t>
+          <t>3032.75</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2994.92</t>
+          <t>3027.14</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2356.43</t>
+          <t>2412.44</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2345.14</t>
+          <t>2402.27</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2521.91</t>
+          <t>2597.17</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2528.55</t>
+          <t>2601.89</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3740.67</t>
+          <t>3489.88</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3527.32</t>
+          <t>3319.91</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3349.87</t>
+          <t>3333.05</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3014.04</t>
+          <t>2700.16</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2369.94</t>
+          <t>2421.43</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2360.27</t>
+          <t>2407.80</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2527.85</t>
+          <t>2603.63</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2533.83</t>
+          <t>2606.72</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3756.59</t>
+          <t>3502.79</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3542.66</t>
+          <t>3337.61</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3388.47</t>
+          <t>3181.70</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>3044.62</t>
+          <t>2715.97</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2382.99</t>
+          <t>2430.17</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2373.34</t>
+          <t>2314.72</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2541.19</t>
+          <t>2614.58</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2543.89</t>
+          <t>2617.45</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3772.05</t>
+          <t>3536.18</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3560.41</t>
+          <t>3353.43</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>3422.76</t>
+          <t>3061.11</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>3070.43</t>
+          <t>2731.48</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2389.67</t>
+          <t>2078.22</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2380.09</t>
+          <t>2066.69</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2563.53</t>
+          <t>2624.79</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2568.84</t>
+          <t>2627.62</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3786.46</t>
+          <t>3560.88</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3581.57</t>
+          <t>3368.36</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>3445.37</t>
+          <t>3073.74</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3086.90</t>
+          <t>2743.98</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2401.86</t>
+          <t>2096.44</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2392.28</t>
+          <t>2086.68</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2574.63</t>
+          <t>2635.05</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2580.02</t>
+          <t>2637.82</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3806.88</t>
+          <t>3589.14</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3613.70</t>
+          <t>3389.80</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>3460.73</t>
+          <t>3093.92</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>3097.15</t>
+          <t>2762.97</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2420.69</t>
+          <t>2114.35</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2411.12</t>
+          <t>2106.10</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2586.58</t>
+          <t>2650.46</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2595.75</t>
+          <t>2555.28</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3909.53</t>
+          <t>3669.27</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3721.36</t>
+          <t>3507.36</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>3548.15</t>
+          <t>3181.12</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>3157.64</t>
+          <t>2830.21</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2514.43</t>
+          <t>2207.43</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2504.81</t>
+          <t>2199.29</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2661.35</t>
+          <t>2379.46</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2667.08</t>
+          <t>2385.13</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>4554.58</t>
+          <t>4457.02</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4325.84</t>
+          <t>4196.62</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>4181.27</t>
+          <t>3817.49</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3865.05</t>
+          <t>3370.02</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2962.18</t>
+          <t>2631.44</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2969.09</t>
+          <t>2623.95</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>3306.78</t>
+          <t>3037.34</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>3325.38</t>
+          <t>3040.74</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,357 +2685,357 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3332.71</t>
+          <t>2993.38</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2871.76</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509.40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2457.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1949.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1942.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2046.32</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2064.53</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3316.32</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3155.48</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2988.77</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2642.01</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2012.56</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2005.03</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2165.72</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2177.26</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3276.19</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>3124.59</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2885.45</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2618.48</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1986.17</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1978.58</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2135.24</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2141.54</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3286.37</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>3137.90</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>2888.27</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2629.85</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>1994.52</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1986.87</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>2141.57</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2146.72</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>3300.66</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>3154.15</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>2902.75</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>2644.28</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>2005.97</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>1998.28</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>2151.72</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>2156.50</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>3313.88</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>3169.02</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>2917.14</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>2657.61</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>2016.74</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>2008.86</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>2161.31</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>2165.91</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>3326.74</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>3183.33</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>2931.28</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>2670.44</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>2027.29</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>2019.35</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>2171.08</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>2175.60</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>3345.71</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
           <t>3203.59</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1078.18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2793.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2286.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2277.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2388.65</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2372.01</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3689.84</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3521.93</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>3349.60</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3023.74</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2357.89</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2348.73</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2526.72</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2514.18</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>3661.49</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>3502.06</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>3320.28</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3029.64</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2338.43</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>2328.42</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2478.75</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2482.49</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>3678.25</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>3522.59</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>3318.90</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>3041.97</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>2351.28</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2342.42</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2493.85</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2498.31</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>3711.42</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>3544.51</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>3363.56</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>3052.16</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>2359.28</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>2348.65</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>2520.56</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>2525.17</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>3722.17</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>3564.41</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>3381.47</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>3062.93</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>2373.93</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>2363.30</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>2518.54</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>2523.53</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>3743.75</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>3585.94</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>3397.29</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>3079.50</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>2388.42</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>2377.78</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>2537.53</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>2542.48</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>3773.35</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>3614.41</t>
-        </is>
-      </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>3425.27</t>
+          <t>2950.96</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>3102.11</t>
+          <t>2689.05</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2410.97</t>
+          <t>2044.37</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2400.35</t>
+          <t>2036.52</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2557.67</t>
+          <t>2186.84</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2561.93</t>
+          <t>2191.38</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3879.80</t>
+          <t>3455.19</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3732.77</t>
+          <t>3311.64</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>3522.32</t>
+          <t>3040.86</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>3159.98</t>
+          <t>2755.66</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2509.53</t>
+          <t>2136.67</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2499.19</t>
+          <t>2128.85</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2639.51</t>
+          <t>2264.91</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2643.96</t>
+          <t>2269.64</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>4475.81</t>
+          <t>4061.06</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4289.43</t>
+          <t>3883.31</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>4108.10</t>
+          <t>3588.96</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3728.62</t>
+          <t>3229.11</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2915.72</t>
+          <t>2535.67</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2913.70</t>
+          <t>2532.77</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>3227.16</t>
+          <t>2862.37</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>3233.21</t>
+          <t>2864.45</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3296.74</t>
+          <t>2772.63</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3158.77</t>
+          <t>2661.50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1185.44</t>
+          <t>635.92</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2738.05</t>
+          <t>2312.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2235.90</t>
+          <t>1810.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2228.03</t>
+          <t>1803.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2319.10</t>
+          <t>1892.57</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2352.14</t>
+          <t>1929.97</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3638.73</t>
+          <t>3046.41</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3476.42</t>
+          <t>2905.72</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3279.30</t>
+          <t>2845.78</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2936.33</t>
+          <t>2469.64</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2311.36</t>
+          <t>1867.89</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2302.12</t>
+          <t>1862.84</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2465.53</t>
+          <t>2003.82</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2471.04</t>
+          <t>2023.14</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3624.09</t>
+          <t>2928.53</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3461.10</t>
+          <t>2811.57</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3202.42</t>
+          <t>2581.04</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2907.36</t>
+          <t>2355.58</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2292.13</t>
+          <t>1800.76</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2282.91</t>
+          <t>1792.93</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2442.08</t>
+          <t>1920.80</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2445.71</t>
+          <t>1925.64</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3643.14</t>
+          <t>2925.81</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3479.88</t>
+          <t>2812.37</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>3213.21</t>
+          <t>2571.61</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2920.43</t>
+          <t>2356.03</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2306.34</t>
+          <t>1801.57</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2297.11</t>
+          <t>1793.74</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>2453.33</t>
+          <t>1919.00</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2457.70</t>
+          <t>1922.79</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3661.99</t>
+          <t>2929.39</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3501.57</t>
+          <t>2818.32</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3231.67</t>
+          <t>2576.12</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2937.13</t>
+          <t>2361.34</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2322.42</t>
+          <t>1806.60</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2313.19</t>
+          <t>1803.49</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>2467.22</t>
+          <t>1922.22</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2471.48</t>
+          <t>1925.78</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3680.06</t>
+          <t>2933.63</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3535.32</t>
+          <t>2824.44</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>3289.48</t>
+          <t>2582.00</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2988.67</t>
+          <t>2366.87</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2336.94</t>
+          <t>1826.88</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2327.72</t>
+          <t>1825.01</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>2479.76</t>
+          <t>1925.97</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>2483.94</t>
+          <t>1929.46</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3702.50</t>
+          <t>2898.90</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3559.31</t>
+          <t>2791.04</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>3305.93</t>
+          <t>2554.77</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3003.39</t>
+          <t>2350.37</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2350.69</t>
+          <t>1868.72</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2341.50</t>
+          <t>1861.22</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>2492.03</t>
+          <t>1903.47</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>2496.15</t>
+          <t>1906.93</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3729.78</t>
+          <t>2910.29</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3588.05</t>
+          <t>2803.75</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>3329.00</t>
+          <t>2566.90</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>3027.59</t>
+          <t>2362.24</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2370.54</t>
+          <t>1884.26</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2361.37</t>
+          <t>1876.75</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>2509.92</t>
+          <t>1913.80</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>2513.98</t>
+          <t>1917.21</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3834.41</t>
+          <t>3001.91</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3693.08</t>
+          <t>2895.29</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>3425.63</t>
+          <t>2642.10</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>3097.25</t>
+          <t>2420.04</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2462.41</t>
+          <t>1961.85</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2453.21</t>
+          <t>1959.51</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2585.90</t>
+          <t>1979.77</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2590.13</t>
+          <t>1983.19</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>4364.38</t>
+          <t>3488.22</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>4207.79</t>
+          <t>3355.78</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3989.50</t>
+          <t>3233.24</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3683.50</t>
+          <t>2961.52</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2860.18</t>
+          <t>2253.21</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2857.82</t>
+          <t>2253.40</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>3192.24</t>
+          <t>2505.33</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>3196.87</t>
+          <t>2509.44</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3268.30</t>
+          <t>2533.64</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3130.35</t>
+          <t>2427.26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1420.70</t>
+          <t>579.11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2761.33</t>
+          <t>2138.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2232.75</t>
+          <t>1662.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2224.95</t>
+          <t>1658.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2316.83</t>
+          <t>1754.30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2351.17</t>
+          <t>1785.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3587.15</t>
+          <t>2750.40</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3425.69</t>
+          <t>2623.92</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3265.10</t>
+          <t>2629.79</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2949.89</t>
+          <t>2267.22</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2303.25</t>
+          <t>1704.91</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2294.11</t>
+          <t>1698.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2459.83</t>
+          <t>1825.09</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2465.80</t>
+          <t>1837.43</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3547.80</t>
+          <t>2678.49</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3391.84</t>
+          <t>2566.15</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3197.40</t>
+          <t>2442.44</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2921.17</t>
+          <t>2220.03</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2294.65</t>
+          <t>1670.52</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2285.48</t>
+          <t>1664.21</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2445.22</t>
+          <t>1774.69</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2449.03</t>
+          <t>1782.24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3567.72</t>
+          <t>2668.03</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3413.97</t>
+          <t>2557.49</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3213.05</t>
+          <t>2422.20</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2938.41</t>
+          <t>2214.54</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2306.84</t>
+          <t>1671.78</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2297.67</t>
+          <t>1665.44</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2455.33</t>
+          <t>1770.53</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2459.87</t>
+          <t>1776.39</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3589.42</t>
+          <t>2665.93</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3437.14</t>
+          <t>2558.31</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3234.51</t>
+          <t>2420.46</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2957.37</t>
+          <t>2215.29</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2321.34</t>
+          <t>1677.15</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2312.18</t>
+          <t>1670.80</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>2468.42</t>
+          <t>1771.74</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>2472.85</t>
+          <t>1777.30</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3608.92</t>
+          <t>2665.27</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3457.81</t>
+          <t>2560.08</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>3253.88</t>
+          <t>2421.18</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2974.39</t>
+          <t>2216.86</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2331.62</t>
+          <t>1682.51</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2322.46</t>
+          <t>1676.14</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>2480.55</t>
+          <t>1773.78</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>2484.91</t>
+          <t>1779.15</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3627.19</t>
+          <t>2657.27</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3477.09</t>
+          <t>2562.73</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>3272.00</t>
+          <t>2423.16</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2990.44</t>
+          <t>2219.35</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2344.34</t>
+          <t>1688.16</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2335.18</t>
+          <t>1681.77</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>2492.47</t>
+          <t>1776.73</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>2496.76</t>
+          <t>1782.00</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3650.59</t>
+          <t>2664.39</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3501.47</t>
+          <t>2572.08</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>3295.05</t>
+          <t>2431.41</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>3014.95</t>
+          <t>2227.98</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2369.03</t>
+          <t>1699.69</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2359.87</t>
+          <t>1693.29</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>2510.14</t>
+          <t>1785.38</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>2514.38</t>
+          <t>1790.59</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3749.61</t>
+          <t>2760.19</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3600.18</t>
+          <t>2661.62</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>3380.74</t>
+          <t>2504.97</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>3076.96</t>
+          <t>2283.11</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2459.39</t>
+          <t>1777.25</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2450.59</t>
+          <t>1770.81</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2584.79</t>
+          <t>1848.28</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2589.20</t>
+          <t>1853.58</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>4196.19</t>
+          <t>3196.94</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>4031.18</t>
+          <t>3064.84</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3897.67</t>
+          <t>3015.64</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3584.02</t>
+          <t>2740.64</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2843.31</t>
+          <t>2110.10</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2841.77</t>
+          <t>2107.27</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>3138.77</t>
+          <t>2363.35</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>3143.15</t>
+          <t>2368.03</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3085.55</t>
+          <t>2762.80</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2952.57</t>
+          <t>2614.55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1547.93</t>
+          <t>784.91</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2572.43</t>
+          <t>2235.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2036.54</t>
+          <t>1766.48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2028.13</t>
+          <t>1759.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2123.42</t>
+          <t>1860.92</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2168.60</t>
+          <t>1892.69</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3384.60</t>
+          <t>2980.11</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3293.99</t>
+          <t>2802.13</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3113.68</t>
+          <t>2736.63</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2772.96</t>
+          <t>2349.88</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2114.07</t>
+          <t>1820.55</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2107.73</t>
+          <t>1812.66</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2222.48</t>
+          <t>1959.36</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2232.87</t>
+          <t>1974.51</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3354.28</t>
+          <t>2824.11</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3272.83</t>
+          <t>2691.65</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2988.22</t>
+          <t>2492.45</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2758.27</t>
+          <t>2240.46</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2114.21</t>
+          <t>1745.47</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2103.26</t>
+          <t>1737.99</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2170.49</t>
+          <t>1867.03</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2171.04</t>
+          <t>1872.63</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3372.65</t>
+          <t>2805.48</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3292.63</t>
+          <t>2684.19</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2993.40</t>
+          <t>2464.17</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2790.62</t>
+          <t>2232.60</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2134.97</t>
+          <t>1740.66</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2125.08</t>
+          <t>1733.14</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>2183.77</t>
+          <t>1854.76</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2177.85</t>
+          <t>1857.64</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3391.62</t>
+          <t>2796.44</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3314.28</t>
+          <t>2684.74</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3012.61</t>
+          <t>2455.83</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2823.95</t>
+          <t>2231.07</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2151.13</t>
+          <t>1738.83</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>2142.12</t>
+          <t>1731.02</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2218.54</t>
+          <t>1850.01</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>2212.26</t>
+          <t>1852.19</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3417.25</t>
+          <t>2789.91</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3333.73</t>
+          <t>2687.22</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>3034.26</t>
+          <t>2451.06</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2852.17</t>
+          <t>2232.06</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>2169.02</t>
+          <t>1738.66</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>2158.89</t>
+          <t>1730.71</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>2249.79</t>
+          <t>1846.82</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>2243.70</t>
+          <t>1848.81</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3441.39</t>
+          <t>2785.45</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3364.22</t>
+          <t>2690.96</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>3058.27</t>
+          <t>2448.35</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2871.20</t>
+          <t>2235.11</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>2183.32</t>
+          <t>1741.49</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2173.35</t>
+          <t>1733.49</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>2278.48</t>
+          <t>1846.27</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>2272.60</t>
+          <t>1848.18</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3470.16</t>
+          <t>2790.83</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3391.52</t>
+          <t>2700.89</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>3106.35</t>
+          <t>2452.68</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2899.99</t>
+          <t>2244.17</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>2202.66</t>
+          <t>1750.71</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>2193.82</t>
+          <t>1742.71</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>2311.08</t>
+          <t>1852.06</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>2305.39</t>
+          <t>1853.93</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3587.72</t>
+          <t>2877.42</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3496.32</t>
+          <t>2789.99</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>3214.76</t>
+          <t>2524.55</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2973.11</t>
+          <t>2298.83</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2292.52</t>
+          <t>1827.82</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2289.75</t>
+          <t>1819.63</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>2399.94</t>
+          <t>1914.81</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>2400.83</t>
+          <t>1916.62</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3988.58</t>
+          <t>3386.38</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3819.81</t>
+          <t>3211.45</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3772.71</t>
+          <t>3041.60</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3463.50</t>
+          <t>2717.14</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2706.44</t>
+          <t>2152.88</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2689.85</t>
+          <t>2149.27</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2912.39</t>
+          <t>2391.05</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2916.40</t>
+          <t>2391.01</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3319.17</t>
+          <t>2934.63</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3201.26</t>
+          <t>2713.79</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1325.56</t>
+          <t>834.42</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2796.25</t>
+          <t>2283.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2260.70</t>
+          <t>1792.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2251.54</t>
+          <t>1785.35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2364.41</t>
+          <t>1986.27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2398.18</t>
+          <t>2013.45</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3659.10</t>
+          <t>3225.35</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3500.42</t>
+          <t>2954.24</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3285.62</t>
+          <t>2905.08</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2994.88</t>
+          <t>2423.08</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2330.01</t>
+          <t>1830.23</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2319.27</t>
+          <t>1822.32</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2509.23</t>
+          <t>2085.39</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2514.56</t>
+          <t>2096.77</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3634.87</t>
+          <t>3002.62</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3489.62</t>
+          <t>2717.72</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3233.52</t>
+          <t>2602.32</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2977.38</t>
+          <t>2230.22</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2299.41</t>
+          <t>1660.22</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2288.71</t>
+          <t>1652.81</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2476.11</t>
+          <t>1920.79</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2480.74</t>
+          <t>1925.38</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3653.04</t>
+          <t>2988.47</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3517.77</t>
+          <t>2704.72</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>3257.15</t>
+          <t>2580.92</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2995.32</t>
+          <t>2219.03</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2310.44</t>
+          <t>1652.11</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2299.76</t>
+          <t>1644.74</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>2483.50</t>
+          <t>1911.04</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2488.40</t>
+          <t>1914.40</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3674.78</t>
+          <t>2983.08</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3546.36</t>
+          <t>2699.74</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3282.58</t>
+          <t>2576.61</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>3013.32</t>
+          <t>2215.14</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2325.15</t>
+          <t>1665.88</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2314.47</t>
+          <t>1663.63</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2495.40</t>
+          <t>1908.08</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2500.16</t>
+          <t>1911.17</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3694.51</t>
+          <t>2979.58</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3571.80</t>
+          <t>2696.57</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>3305.33</t>
+          <t>2575.02</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>3029.71</t>
+          <t>2212.87</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2338.73</t>
+          <t>1684.15</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2328.06</t>
+          <t>1679.83</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2507.13</t>
+          <t>1906.59</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2511.72</t>
+          <t>1909.58</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3713.23</t>
+          <t>2977.81</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3595.42</t>
+          <t>2695.07</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>3326.47</t>
+          <t>2574.98</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3045.42</t>
+          <t>2212.00</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2352.03</t>
+          <t>1693.05</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2341.37</t>
+          <t>1686.04</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2519.66</t>
+          <t>1906.49</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2524.19</t>
+          <t>1909.42</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3738.83</t>
+          <t>2983.50</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3624.34</t>
+          <t>2700.81</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>3352.31</t>
+          <t>2581.57</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>3070.68</t>
+          <t>2217.61</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2372.87</t>
+          <t>1705.27</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2362.25</t>
+          <t>1698.24</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2539.42</t>
+          <t>1912.91</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2543.88</t>
+          <t>1915.79</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3855.56</t>
+          <t>3079.31</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3730.94</t>
+          <t>2790.06</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>3440.77</t>
+          <t>2658.33</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>3139.39</t>
+          <t>2271.85</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2477.46</t>
+          <t>1778.12</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2466.67</t>
+          <t>1775.96</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2625.67</t>
+          <t>1996.48</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2630.36</t>
+          <t>1999.43</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>4355.29</t>
+          <t>3567.69</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>4251.03</t>
+          <t>3255.24</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3954.65</t>
+          <t>3160.92</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3692.58</t>
+          <t>2703.49</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2895.04</t>
+          <t>2127.09</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2891.98</t>
+          <t>2123.54</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>3196.68</t>
+          <t>2544.48</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>3200.70</t>
+          <t>2545.05</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3482.41</t>
+          <t>3343.64</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3190.93</t>
+          <t>2880.14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1345.64</t>
+          <t>978.22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2819.34</t>
+          <t>2446.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2279.37</t>
+          <t>1910.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2270.27</t>
+          <t>1908.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2476.98</t>
+          <t>2304.62</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2518.83</t>
+          <t>2311.56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3814.19</t>
+          <t>3678.16</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3499.06</t>
+          <t>3165.17</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3471.88</t>
+          <t>3314.41</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3009.51</t>
+          <t>2641.74</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2352.69</t>
+          <t>1968.61</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2343.53</t>
+          <t>1964.36</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2622.30</t>
+          <t>2449.03</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2632.44</t>
+          <t>2459.07</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3768.22</t>
+          <t>3550.60</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3531.01</t>
+          <t>3121.00</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3413.80</t>
+          <t>3142.75</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2986.47</t>
+          <t>2542.50</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2327.92</t>
+          <t>1913.34</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2317.27</t>
+          <t>1905.31</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2580.87</t>
+          <t>2360.63</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2585.39</t>
+          <t>2367.99</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3773.22</t>
+          <t>3545.65</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3557.02</t>
+          <t>3130.48</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>3428.73</t>
+          <t>3128.22</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3000.94</t>
+          <t>2547.28</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2337.35</t>
+          <t>1919.17</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2328.15</t>
+          <t>1911.67</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2581.16</t>
+          <t>2358.57</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2586.15</t>
+          <t>2364.27</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3789.46</t>
+          <t>3535.31</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3577.39</t>
+          <t>3141.74</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3450.44</t>
+          <t>3081.78</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3025.82</t>
+          <t>2552.62</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2353.95</t>
+          <t>1926.91</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2344.74</t>
+          <t>1919.60</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2587.10</t>
+          <t>2320.53</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2591.89</t>
+          <t>2327.40</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3798.70</t>
+          <t>3543.21</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3595.86</t>
+          <t>3151.70</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>3470.23</t>
+          <t>3076.29</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>3052.23</t>
+          <t>2557.18</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2368.91</t>
+          <t>1934.72</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2359.69</t>
+          <t>1927.61</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2599.04</t>
+          <t>2267.17</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2595.98</t>
+          <t>2273.75</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3815.30</t>
+          <t>3552.84</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3613.23</t>
+          <t>3161.77</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>3488.63</t>
+          <t>3085.64</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3076.54</t>
+          <t>2569.34</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2383.18</t>
+          <t>1942.78</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2373.95</t>
+          <t>1935.96</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2615.26</t>
+          <t>2273.52</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2622.05</t>
+          <t>2279.39</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3837.84</t>
+          <t>3568.52</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3635.94</t>
+          <t>3177.96</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3511.79</t>
+          <t>3098.78</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>3104.98</t>
+          <t>2585.41</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2403.46</t>
+          <t>1956.91</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2394.25</t>
+          <t>1950.19</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2639.00</t>
+          <t>2287.08</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2644.33</t>
+          <t>2292.71</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3933.44</t>
+          <t>3685.50</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3739.28</t>
+          <t>3280.42</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3596.99</t>
+          <t>3185.45</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>3169.69</t>
+          <t>2648.42</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2499.89</t>
+          <t>2043.17</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2490.44</t>
+          <t>2036.74</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2706.75</t>
+          <t>2370.29</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2712.38</t>
+          <t>2376.49</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4711.55</t>
+          <t>4509.96</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4400.85</t>
+          <t>4018.96</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>4263.13</t>
+          <t>3876.44</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3801.70</t>
+          <t>3204.47</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2967.69</t>
+          <t>2491.81</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2965.24</t>
+          <t>2488.22</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3376.69</t>
+          <t>3093.64</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3383.57</t>
+          <t>3094.67</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3544.19</t>
+          <t>3298.96</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3223.34</t>
+          <t>2847.94</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>911.97</t>
+          <t>804.89</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2818.53</t>
+          <t>2397.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2293.39</t>
+          <t>1892.63</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2283.91</t>
+          <t>1888.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2485.27</t>
+          <t>2277.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2521.67</t>
+          <t>2298.39</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3922.77</t>
+          <t>3636.54</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3556.20</t>
+          <t>3114.47</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3503.11</t>
+          <t>3231.98</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3024.42</t>
+          <t>2564.10</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2384.08</t>
+          <t>1951.47</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2373.19</t>
+          <t>1946.54</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2673.54</t>
+          <t>2396.84</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2679.76</t>
+          <t>2426.25</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3894.84</t>
+          <t>3600.79</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3546.55</t>
+          <t>3049.24</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3474.97</t>
+          <t>3150.47</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>3004.41</t>
+          <t>2504.15</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2364.36</t>
+          <t>1970.18</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2353.76</t>
+          <t>1957.78</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2649.98</t>
+          <t>2374.08</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2650.68</t>
+          <t>2378.71</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3918.63</t>
+          <t>3617.88</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3574.54</t>
+          <t>3113.20</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>3490.65</t>
+          <t>3164.29</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>3017.03</t>
+          <t>2503.80</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2386.38</t>
+          <t>1998.91</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2377.34</t>
+          <t>1985.05</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2657.06</t>
+          <t>2383.07</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2664.58</t>
+          <t>2391.13</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3942.09</t>
+          <t>3634.57</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3596.86</t>
+          <t>3145.15</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3512.25</t>
+          <t>3191.27</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>3051.14</t>
+          <t>2564.37</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2396.89</t>
+          <t>2012.71</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2387.68</t>
+          <t>2005.11</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2673.18</t>
+          <t>2394.66</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2680.29</t>
+          <t>2397.72</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3958.26</t>
+          <t>3649.73</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3613.63</t>
+          <t>3170.56</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3535.74</t>
+          <t>3208.92</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>3067.79</t>
+          <t>2650.10</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2409.65</t>
+          <t>2024.10</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2400.42</t>
+          <t>2016.05</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2683.68</t>
+          <t>2403.71</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2690.71</t>
+          <t>2411.01</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3981.17</t>
+          <t>3664.77</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3637.62</t>
+          <t>3194.80</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3557.55</t>
+          <t>3227.00</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3077.01</t>
+          <t>2670.99</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2423.26</t>
+          <t>2034.09</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2414.04</t>
+          <t>2025.41</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2698.97</t>
+          <t>2415.41</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2701.76</t>
+          <t>2422.88</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>4007.76</t>
+          <t>3684.35</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3661.31</t>
+          <t>3214.93</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3579.43</t>
+          <t>3248.47</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>3100.18</t>
+          <t>2686.48</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2439.78</t>
+          <t>2050.24</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2430.61</t>
+          <t>2041.45</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2718.33</t>
+          <t>2431.48</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2723.55</t>
+          <t>2438.63</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>4112.52</t>
+          <t>3787.94</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3766.58</t>
+          <t>3301.28</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3665.58</t>
+          <t>3321.56</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3160.97</t>
+          <t>2741.37</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2541.56</t>
+          <t>2132.31</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2532.51</t>
+          <t>2124.18</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2792.96</t>
+          <t>2494.82</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2801.94</t>
+          <t>2508.67</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4926.36</t>
+          <t>4625.80</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4474.54</t>
+          <t>3971.55</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>4452.12</t>
+          <t>4049.56</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3813.23</t>
+          <t>3264.14</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2993.33</t>
+          <t>2566.00</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2989.93</t>
+          <t>2564.99</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>3566.58</t>
+          <t>3229.42</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>3574.30</t>
+          <t>3236.09</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3516.58</t>
+          <t>3491.82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3119.10</t>
+          <t>2741.53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>563.53</t>
+          <t>573.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2745.17</t>
+          <t>2365.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2186.40</t>
+          <t>2140.84</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2178.46</t>
+          <t>2134.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2467.13</t>
+          <t>2566.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2491.40</t>
+          <t>2571.33</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3899.66</t>
+          <t>3849.79</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3438.58</t>
+          <t>3353.58</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3444.95</t>
+          <t>3509.42</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2940.97</t>
+          <t>2506.34</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2359.33</t>
+          <t>2217.74</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2349.41</t>
+          <t>2211.73</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2640.02</t>
+          <t>2724.05</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2646.00</t>
+          <t>2734.80</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3873.37</t>
+          <t>3812.18</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3436.63</t>
+          <t>3318.54</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>3415.44</t>
+          <t>3438.39</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2929.89</t>
+          <t>2819.40</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2340.80</t>
+          <t>2188.54</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2331.61</t>
+          <t>2180.85</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2610.96</t>
+          <t>2682.21</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2615.20</t>
+          <t>2692.38</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3886.33</t>
+          <t>3812.22</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3481.56</t>
+          <t>3328.00</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>3433.23</t>
+          <t>3425.05</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2946.22</t>
+          <t>2823.26</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2353.07</t>
+          <t>2192.65</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2343.88</t>
+          <t>2184.75</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2621.55</t>
+          <t>2683.05</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2626.44</t>
+          <t>2689.88</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3906.29</t>
+          <t>3821.04</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3508.10</t>
+          <t>3340.61</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3453.64</t>
+          <t>3407.33</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2964.57</t>
+          <t>2833.10</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2366.66</t>
+          <t>2199.85</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2357.47</t>
+          <t>2191.84</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2633.04</t>
+          <t>2669.00</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2638.17</t>
+          <t>2683.41</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3927.12</t>
+          <t>3834.63</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3527.29</t>
+          <t>3353.30</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3471.13</t>
+          <t>3402.46</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2980.61</t>
+          <t>2843.58</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2378.83</t>
+          <t>2207.93</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2369.63</t>
+          <t>2199.86</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2645.70</t>
+          <t>2655.33</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2649.31</t>
+          <t>2660.44</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3946.59</t>
+          <t>3849.22</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3546.33</t>
+          <t>3366.56</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3488.44</t>
+          <t>3403.54</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2996.12</t>
+          <t>2854.91</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2390.51</t>
+          <t>2217.54</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2381.32</t>
+          <t>2209.40</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2658.36</t>
+          <t>2648.09</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2659.55</t>
+          <t>2652.58</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3967.92</t>
+          <t>3873.84</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3564.36</t>
+          <t>3385.29</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3512.83</t>
+          <t>3427.11</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>3025.89</t>
+          <t>2872.21</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2408.62</t>
+          <t>2234.14</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2399.48</t>
+          <t>2226.07</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2676.10</t>
+          <t>2645.62</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2681.45</t>
+          <t>2650.13</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>4065.11</t>
+          <t>3977.47</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3655.62</t>
+          <t>3488.83</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3617.76</t>
+          <t>3517.62</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>3099.66</t>
+          <t>2935.65</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2496.58</t>
+          <t>2328.04</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2487.49</t>
+          <t>2320.30</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2769.82</t>
+          <t>2716.78</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2776.10</t>
+          <t>2722.27</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4825.07</t>
+          <t>4735.05</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>4265.29</t>
+          <t>3806.64</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>4306.47</t>
+          <t>4208.99</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3626.41</t>
+          <t>3366.84</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2900.43</t>
+          <t>2687.88</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2898.32</t>
+          <t>2688.15</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>3492.74</t>
+          <t>3381.77</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>3501.05</t>
+          <t>3385.39</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3085.55</t>
+          <t>2533.64</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2952.57</t>
+          <t>2427.26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>481.65</t>
+          <t>475.08</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2572.43</t>
+          <t>2138.84</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2036.54</t>
+          <t>1662.83</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2028.13</t>
+          <t>1658.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2123.42</t>
+          <t>1754.30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2168.60</t>
+          <t>1785.38</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3384.60</t>
+          <t>2750.40</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3293.99</t>
+          <t>2623.92</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3113.68</t>
+          <t>2629.79</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2772.96</t>
+          <t>2267.22</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2114.07</t>
+          <t>1704.91</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2107.73</t>
+          <t>1698.62</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2222.48</t>
+          <t>1825.09</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2232.87</t>
+          <t>1837.43</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3354.28</t>
+          <t>2678.49</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3272.83</t>
+          <t>2566.15</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2988.22</t>
+          <t>2442.44</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2758.27</t>
+          <t>2211.25</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2114.21</t>
+          <t>1660.22</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2103.26</t>
+          <t>1652.81</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2170.49</t>
+          <t>1774.69</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2171.04</t>
+          <t>1782.24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>3372.65</t>
+          <t>2668.03</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3292.63</t>
+          <t>2557.49</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2993.40</t>
+          <t>2422.20</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2790.62</t>
+          <t>2198.31</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2134.97</t>
+          <t>1652.11</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2125.08</t>
+          <t>1644.74</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2183.77</t>
+          <t>1770.53</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2177.85</t>
+          <t>1776.39</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3391.62</t>
+          <t>2665.93</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3314.28</t>
+          <t>2558.31</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>3012.61</t>
+          <t>2420.46</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2823.95</t>
+          <t>2215.14</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2151.13</t>
+          <t>1665.88</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>2142.12</t>
+          <t>1663.63</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>2218.54</t>
+          <t>1771.74</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2212.26</t>
+          <t>1777.30</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3417.25</t>
+          <t>2665.27</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3333.73</t>
+          <t>2560.08</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>3034.26</t>
+          <t>2421.18</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2852.17</t>
+          <t>2212.87</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>2169.02</t>
+          <t>1682.51</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>2158.89</t>
+          <t>1676.14</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>2249.79</t>
+          <t>1773.78</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>2243.70</t>
+          <t>1779.15</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3441.39</t>
+          <t>2657.27</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3364.22</t>
+          <t>2562.73</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>3058.27</t>
+          <t>2423.16</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2871.20</t>
+          <t>2173.15</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>2183.32</t>
+          <t>1688.16</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2173.35</t>
+          <t>1681.77</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>2278.48</t>
+          <t>1776.73</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>2272.60</t>
+          <t>1782.00</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3470.16</t>
+          <t>2664.39</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3391.52</t>
+          <t>2572.08</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>3106.35</t>
+          <t>2431.41</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2899.99</t>
+          <t>2205.09</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>2202.66</t>
+          <t>1699.69</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>2193.82</t>
+          <t>1693.29</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>2311.08</t>
+          <t>1785.38</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>2305.39</t>
+          <t>1790.59</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3587.72</t>
+          <t>2760.19</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3496.32</t>
+          <t>2661.62</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>3214.76</t>
+          <t>2504.97</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2973.11</t>
+          <t>2264.44</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2292.52</t>
+          <t>1777.25</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2289.75</t>
+          <t>1770.81</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>2399.94</t>
+          <t>1848.28</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>2400.83</t>
+          <t>1853.58</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3988.58</t>
+          <t>3196.94</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3819.81</t>
+          <t>3064.84</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3772.71</t>
+          <t>3015.64</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3463.50</t>
+          <t>2699.02</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2706.44</t>
+          <t>2110.10</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2689.85</t>
+          <t>2107.27</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2912.39</t>
+          <t>2363.35</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2916.40</t>
+          <t>2368.03</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3544.19</t>
+          <t>3534.29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3235.69</t>
+          <t>2987.75</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1547.93</t>
+          <t>978.22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2821.97</t>
+          <t>2479.65</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2294.35</t>
+          <t>2140.84</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2285.24</t>
+          <t>2134.02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2485.27</t>
+          <t>2566.68</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2521.67</t>
+          <t>2571.33</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3922.77</t>
+          <t>3896.76</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3599.91</t>
+          <t>3353.58</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3503.11</t>
+          <t>3511.26</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3025.27</t>
+          <t>2730.72</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2384.08</t>
+          <t>2434.73</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2373.19</t>
+          <t>2425.35</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2673.54</t>
+          <t>2724.05</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2679.76</t>
+          <t>2734.80</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3894.84</t>
+          <t>3871.01</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3554.66</t>
+          <t>3318.54</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3474.97</t>
+          <t>3471.97</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3039.37</t>
+          <t>3027.14</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2364.36</t>
+          <t>2412.44</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2353.76</t>
+          <t>2402.27</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2649.98</t>
+          <t>2682.21</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2650.68</t>
+          <t>2692.38</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3918.63</t>
+          <t>3884.75</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3577.09</t>
+          <t>3344.45</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3490.65</t>
+          <t>3494.19</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>3041.97</t>
+          <t>3042.86</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2386.38</t>
+          <t>2421.43</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2377.34</t>
+          <t>2407.80</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2657.06</t>
+          <t>2683.05</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2664.58</t>
+          <t>2689.88</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3942.09</t>
+          <t>3902.81</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3614.55</t>
+          <t>3641.05</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3512.25</t>
+          <t>3461.10</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>3052.16</t>
+          <t>3056.86</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2396.89</t>
+          <t>2430.17</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2387.68</t>
+          <t>2354.88</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2673.18</t>
+          <t>2669.03</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2680.29</t>
+          <t>2688.50</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3958.26</t>
+          <t>3921.28</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3643.64</t>
+          <t>3656.17</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3535.74</t>
+          <t>3476.22</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>3070.43</t>
+          <t>3069.44</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2409.65</t>
+          <t>2379.15</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2400.42</t>
+          <t>2368.18</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2683.68</t>
+          <t>2668.49</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2690.71</t>
+          <t>2673.55</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3981.17</t>
+          <t>3939.27</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3665.34</t>
+          <t>3671.20</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3557.55</t>
+          <t>3490.29</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3086.90</t>
+          <t>3082.51</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2423.26</t>
+          <t>2389.82</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2414.04</t>
+          <t>2378.70</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2698.97</t>
+          <t>2671.25</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2701.76</t>
+          <t>2677.15</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>4007.76</t>
+          <t>3955.93</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3700.03</t>
+          <t>3694.43</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3579.43</t>
+          <t>3500.71</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>3105.88</t>
+          <t>3102.61</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2440.02</t>
+          <t>2409.10</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2430.61</t>
+          <t>2398.07</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2718.33</t>
+          <t>2681.25</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2723.55</t>
+          <t>2690.16</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>4112.52</t>
+          <t>4055.78</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3830.72</t>
+          <t>3816.49</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3665.58</t>
+          <t>3566.43</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3176.14</t>
+          <t>3176.99</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2541.56</t>
+          <t>2515.47</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2532.51</t>
+          <t>2504.56</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2792.96</t>
+          <t>2739.53</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2801.94</t>
+          <t>2746.32</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4926.36</t>
+          <t>4774.88</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4519.49</t>
+          <t>4453.37</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>4452.12</t>
+          <t>4208.99</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3865.05</t>
+          <t>3659.85</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>3012.24</t>
+          <t>2914.36</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>3008.08</t>
+          <t>2910.94</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>3566.58</t>
+          <t>3405.01</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>3574.30</t>
+          <t>3408.91</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
